--- a/11-CollaborationList/InstituteCancerResearch.xlsx
+++ b/11-CollaborationList/InstituteCancerResearch.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D8956A-62A0-F044-B12D-5F1B0DCB6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49824EBC-BE53-F14A-8001-B154B2581316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InstituteCancerResearch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>J.</t>
-  </si>
-  <si>
-    <t>jeffrey.bamber@icr.ac.uk</t>
   </si>
   <si>
     <t>J. Bamber</t>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Harris</t>
+  </si>
+  <si>
+    <t>jeffrey.bamber@icr.ac.uk; jeff.bamber@icr.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,16 +758,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -777,36 +777,36 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -816,10 +816,10 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -827,25 +827,25 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>

--- a/11-CollaborationList/InstituteCancerResearch.xlsx
+++ b/11-CollaborationList/InstituteCancerResearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49824EBC-BE53-F14A-8001-B154B2581316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869C16E6-67EC-42F8-96C7-061E979DE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
   </bookViews>
   <sheets>
     <sheet name="InstituteCancerResearch" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>J.</t>
-  </si>
-  <si>
-    <t>J. Bamber</t>
   </si>
   <si>
     <t>ICR</t>
@@ -201,7 +198,14 @@
     <t>Harris</t>
   </si>
   <si>
-    <t>jeffrey.bamber@icr.ac.uk; jeff.bamber@icr.ac.uk</t>
+    <t>jeff.bamber@icr.ac.uk; jeff@icr.ac.uk</t>
+  </si>
+  <si>
+    <t>J. C. Bamber</t>
+  </si>
+  <si>
+    <t>Joint Department of Physics, Institute of Cancer Research and Royal Marsden NHS Foundation Trust, Sir Richard Doll Building
+28 Oakleaf Avenue, Sutton, London, SM2 5GP</t>
   </si>
 </sst>
 </file>
@@ -675,29 +679,29 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.796875" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.83203125" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.796875" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.796875" customWidth="1"/>
+    <col min="14" max="14" width="25.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -758,16 +762,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -777,36 +781,36 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -816,36 +820,36 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>

--- a/11-CollaborationList/InstituteCancerResearch.xlsx
+++ b/11-CollaborationList/InstituteCancerResearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050112097543/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869C16E6-67EC-42F8-96C7-061E979DE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{869C16E6-67EC-42F8-96C7-061E979DE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA041C7-FFAE-8D47-8593-2CE0F4F251BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{CC4E119D-9618-D84F-B362-22684ABE43A6}"/>
   </bookViews>
   <sheets>
     <sheet name="InstituteCancerResearch" sheetId="1" r:id="rId1"/>
@@ -198,14 +198,14 @@
     <t>Harris</t>
   </si>
   <si>
-    <t>jeff.bamber@icr.ac.uk; jeff@icr.ac.uk</t>
-  </si>
-  <si>
     <t>J. C. Bamber</t>
   </si>
   <si>
     <t>Joint Department of Physics, Institute of Cancer Research and Royal Marsden NHS Foundation Trust, Sir Richard Doll Building
 28 Oakleaf Avenue, Sutton, London, SM2 5GP</t>
+  </si>
+  <si>
+    <t>jeff.bamber@icr.ac.uk; jeff@icr.ac.uk; jeffrey.bamber@icr.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -679,29 +679,29 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.83203125" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.796875" customWidth="1"/>
-    <col min="12" max="12" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.796875" customWidth="1"/>
-    <col min="14" max="14" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -762,16 +762,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -826,7 +826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
